--- a/student_timetable/9101_timetable.xlsx
+++ b/student_timetable/9101_timetable.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="E10" s="6" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>13:00 to 14:00(L + T)</t>
+          <t>12:00 to 13:00(L + T)</t>
         </is>
       </c>
       <c r="C16" s="6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>321</t>
         </is>
       </c>
       <c r="E16" s="6" t="n">
